--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285793.14701265</v>
+        <v>2283541.067301441</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>233.9232825284308</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>72.50688677025394</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.6811857025932</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>111.4413412294545</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157712</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.78085380126538</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>162.6986010672244</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>313.0208456022286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.06247268904097</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.10799870228436</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>41.02686156550037</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>221.2030256723189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>182.6589060852714</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>107.1821924454413</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,10 +2612,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176345</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846222</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>191.6227449987283</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.27614159852243</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>39.17658763086867</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701366</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>206.2895129765288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>193.9817902624342</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>73.44478684180565</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>108.524925799985</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.543434242328</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2773.051261552376</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2773.051261552376</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4404,16 +4404,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.8811108217975</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>847.6477262522715</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>847.6477262522715</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T4" t="n">
-        <v>625.8811108217975</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U4" t="n">
-        <v>625.8811108217975</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>625.8811108217975</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>625.8811108217975</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>625.8811108217975</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>625.8811108217975</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827847</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>525.6051276760343</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>525.6051276760343</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>518.6596269268308</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4662,22 +4662,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>692.8974549201675</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="C7" t="n">
-        <v>523.9612719922607</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="D7" t="n">
-        <v>523.9612719922607</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>523.9612719922607</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>377.0713244943503</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>474.5166334391246</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201675</v>
+        <v>246.5270825411072</v>
       </c>
       <c r="Y7" t="n">
-        <v>692.8974549201675</v>
+        <v>246.5270825411072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.8974549201675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>523.9612719922607</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>523.9612719922607</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>376.0481784098675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>376.0481784098675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>208.3453417845865</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201675</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.96527192868</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.96527192868</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>817.189422194221</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>667.0727827818853</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E13" t="n">
-        <v>519.1596891994922</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F13" t="n">
-        <v>372.2697417015818</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622243</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343174</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219817</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3439841395885</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4540366416782</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2579373565581</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>135.2579373565581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832661</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970972</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934011</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035994</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892464</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>915.1035305473698</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>746.1673476194629</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,28 +6236,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.580456911441</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578583</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2070.549920953621</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1781.474694297819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1526.790206091932</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1237.373036054971</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.373036054971</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.580456911441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.0422355233313</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.421526410036</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2237.56669206494</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2017.965227087881</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1728.890000432079</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.6907003535711</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,49 +6926,49 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>639.6425904082687</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1559.490355317017</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1270.073185280056</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1042.083634382039</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>821.2910552385084</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856862</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577793</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7846,10 +7846,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.4161395899845</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557219067</v>
       </c>
       <c r="I16" t="n">
-        <v>40.23897475306516</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.506629716718265</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>41.43328057277105</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948057</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>25.78270532856001</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.09910511159926</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823375</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.84813034729919</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>58.1558530613938</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.09054721822739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.327398212</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982123</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,13 +26442,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948258</v>
+        <v>-914494.1029948263</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.642732766</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327665</v>
+        <v>414250.6427327662</v>
       </c>
       <c r="E6" t="n">
-        <v>162778.37416435</v>
+        <v>162743.6362389144</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="G6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.098046269</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.835971705</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="I6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.6335744278</v>
+        <v>270624.8956489919</v>
       </c>
       <c r="K6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="L6" t="n">
-        <v>488190.8359717052</v>
+        <v>488156.0980462695</v>
       </c>
       <c r="M6" t="n">
-        <v>403135.808036193</v>
+        <v>403101.0701107578</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.8359717049</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717052</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="P6" t="n">
-        <v>488190.8359717049</v>
+        <v>488156.0980462693</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>17.0718894304712</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.4252658997934</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>29.53065250301972</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>299.4803844239989</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659871</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.834619216947</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>3.327207191803836</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>56.7102550762404</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>100.6925422252798</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4.137378184557301e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29332,10 +29332,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>171.0290152085043</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>382.1329742631541</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>479.6444630806909</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>537.262354434964</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>25.34951124454038</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>248.1585668488238</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>337.5104291586726</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>394.6661099905195</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>290.0605676494659</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
